--- a/dr/protected/commands/template/month_more_iaib.xlsx
+++ b/dr/protected/commands/template/month_more_iaib.xlsx
@@ -819,7 +819,7 @@
     <t>技术员生产力</t>
   </si>
   <si>
-    <t>上月技术员平均生意额超出标准门栏比例 （标准：30000/月， 当地平均技术员生意额 - 标准生意额 / 标准生意额 ），主管/主任级别以下技术员</t>
+    <t>技术员平均生意额超出标准门栏比例 （标准：30000/月， 当地平均技术员生意额 - 标准生意额 / 标准生意额 ），主管/主任级别以下技术员</t>
   </si>
   <si>
     <t>&gt;20% : 5
@@ -830,7 +830,7 @@
 &lt; -30% : 0</t>
   </si>
   <si>
-    <t>上月技术员最高生意额技术员金额跟标准比较  （标准：30000/月)</t>
+    <t>技术员最高生意额技术员金额跟标准比较  （标准：30000/月)</t>
   </si>
   <si>
     <t>35%(4)</t>
@@ -841,7 +841,7 @@
 10% - 30% ： 3</t>
   </si>
   <si>
-    <t>上月技术员最高生意额技术员金额</t>
+    <t>技术员最高生意额技术员金额</t>
   </si>
   <si>
     <t>仅供参考，不计算分数</t>
@@ -1295,6 +1295,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="新細明體"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">&gt;20% : 3
 10% - 20% : 5
 0% - 10% : 1                                         </t>
@@ -1615,11 +1621,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
+    <numFmt numFmtId="176" formatCode="0.0000_ "/>
+    <numFmt numFmtId="177" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="178" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="179" formatCode="0.00_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="0.00_ "/>
-    <numFmt numFmtId="177" formatCode="0.0000_ "/>
-    <numFmt numFmtId="178" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="179" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="180" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="43">
@@ -1714,25 +1720,19 @@
       <charset val="134"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="宋体"/>
-      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
@@ -1742,8 +1742,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color indexed="8"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1757,9 +1765,103 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1775,13 +1877,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color indexed="8"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1789,99 +1885,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color indexed="8"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="9"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -1961,7 +1967,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799951170384838"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799951170384838"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399945066682943"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799951170384838"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="29"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="11"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="46"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399945066682943"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399945066682943"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="52"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="47"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799951170384838"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399945066682943"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799951170384838"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1973,13 +2135,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor indexed="27"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799951170384838"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1991,73 +2165,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="11"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799951170384838"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="46"/>
+        <fgColor theme="9" tint="0.399945066682943"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799951170384838"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799951170384838"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="29"/>
+        <fgColor indexed="30"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2069,121 +2195,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399945066682943"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399945066682943"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="27"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399945066682943"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399945066682943"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399945066682943"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="47"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399945066682943"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799951170384838"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799951170384838"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="30"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799951170384838"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2196,12 +2208,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor indexed="51"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="52"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2326,6 +2332,30 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
@@ -2340,13 +2370,46 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top style="thin">
-        <color indexed="62"/>
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color indexed="62"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2368,68 +2431,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
+        <color indexed="62"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color indexed="62"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2462,205 +2468,205 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="34" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="16" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="180" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="16" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="19" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="8" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="33" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -2672,22 +2678,22 @@
     <xf numFmtId="0" fontId="0" fillId="48" borderId="17" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="50" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="51" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="52" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="50" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="51" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="52" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2710,7 +2716,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="180" fontId="3" fillId="0" borderId="0" xfId="10" applyFont="1" applyFill="1">
@@ -2725,7 +2731,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="5" fillId="0" borderId="1" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="1" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="68" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2737,7 +2743,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="6" fillId="0" borderId="1" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="1" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="180" fontId="6" fillId="0" borderId="1" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2755,10 +2761,10 @@
     <xf numFmtId="180" fontId="6" fillId="0" borderId="1" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="177" fontId="7" fillId="2" borderId="2" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="7" fillId="2" borderId="2" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="7" fillId="0" borderId="1" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="7" fillId="0" borderId="1" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2767,19 +2773,19 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="7" fillId="2" borderId="2" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="7" fillId="2" borderId="2" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="7" fillId="0" borderId="2" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="7" fillId="0" borderId="2" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="9" fillId="0" borderId="2" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="9" fillId="0" borderId="2" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="9" fillId="0" borderId="2" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="9" fillId="0" borderId="2" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="180" fontId="9" fillId="0" borderId="1" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2791,7 +2797,7 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="6" fillId="0" borderId="1" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="1" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2806,7 +2812,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="2" borderId="3" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="2" borderId="3" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="180" fontId="0" fillId="2" borderId="3" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2833,7 +2839,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="4" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="4" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
     <xf numFmtId="180" fontId="0" fillId="0" borderId="4" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2845,19 +2851,19 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="3" borderId="4" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="3" borderId="4" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="180" fontId="0" fillId="3" borderId="4" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="3" borderId="4" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="3" borderId="4" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="3" borderId="4" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="3" borderId="4" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="180" fontId="0" fillId="3" borderId="4" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2869,7 +2875,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="4" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="4" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="180" fontId="0" fillId="0" borderId="4" xfId="10" applyFont="1" applyFill="1" applyBorder="1">
@@ -2881,7 +2887,7 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="4" borderId="4" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="4" borderId="4" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="180" fontId="0" fillId="4" borderId="4" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2902,7 +2908,7 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="4" borderId="4" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="4" borderId="4" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="180" fontId="0" fillId="4" borderId="4" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2911,7 +2917,7 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="4" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="4" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="180" fontId="0" fillId="0" borderId="4" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2923,7 +2929,7 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="5" borderId="4" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="5" borderId="4" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="180" fontId="0" fillId="5" borderId="4" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2932,13 +2938,13 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="5" borderId="4" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="5" borderId="4" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="180" fontId="0" fillId="5" borderId="4" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="5" borderId="4" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="5" borderId="4" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="5" borderId="4" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2953,13 +2959,13 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="6" borderId="4" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="6" borderId="4" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="180" fontId="0" fillId="6" borderId="4" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="6" borderId="4" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="6" borderId="4" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
     <xf numFmtId="180" fontId="0" fillId="6" borderId="4" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2971,7 +2977,7 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="6" borderId="4" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="6" borderId="4" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="4" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2980,7 +2986,7 @@
     <xf numFmtId="0" fontId="3" fillId="6" borderId="4" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="3" fillId="6" borderId="4" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="3" fillId="6" borderId="4" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="180" fontId="3" fillId="6" borderId="4" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2989,7 +2995,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="10" applyFont="1" applyFill="1" applyBorder="1">
@@ -2998,7 +3004,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="10" applyFont="1" applyFill="1">
@@ -3018,10 +3024,10 @@
     <cellStyle name="输入" xfId="3" builtinId="20"/>
     <cellStyle name="货币" xfId="4" builtinId="4"/>
     <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="20% - 輔色4" xfId="7"/>
-    <cellStyle name="差" xfId="8" builtinId="27"/>
-    <cellStyle name="40% - 輔色2" xfId="9"/>
+    <cellStyle name="差" xfId="6" builtinId="27"/>
+    <cellStyle name="40% - 輔色2" xfId="7"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="8" builtinId="39"/>
+    <cellStyle name="20% - 輔色4" xfId="9"/>
     <cellStyle name="千位分隔" xfId="10" builtinId="3"/>
     <cellStyle name="60% - 强调文字颜色 3" xfId="11" builtinId="40"/>
     <cellStyle name="超链接" xfId="12" builtinId="8"/>
@@ -3053,26 +3059,26 @@
     <cellStyle name="40% - 强调文字颜色 1" xfId="38" builtinId="31"/>
     <cellStyle name="20% - 輔色2" xfId="39"/>
     <cellStyle name="20% - 强调文字颜色 2" xfId="40" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="41" builtinId="35"/>
-    <cellStyle name="20% - 輔色3" xfId="42"/>
-    <cellStyle name="40% - 輔色1" xfId="43"/>
+    <cellStyle name="40% - 輔色1" xfId="41"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="42" builtinId="35"/>
+    <cellStyle name="20% - 輔色3" xfId="43"/>
     <cellStyle name="强调文字颜色 3" xfId="44" builtinId="37"/>
     <cellStyle name="强调文字颜色 4" xfId="45" builtinId="41"/>
     <cellStyle name="20% - 强调文字颜色 4" xfId="46" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="47" builtinId="43"/>
-    <cellStyle name="20% - 輔色5" xfId="48"/>
-    <cellStyle name="40% - 輔色3" xfId="49"/>
-    <cellStyle name="60% - 輔色1" xfId="50"/>
+    <cellStyle name="60% - 輔色1" xfId="47"/>
+    <cellStyle name="40% - 輔色3" xfId="48"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="49" builtinId="43"/>
+    <cellStyle name="20% - 輔色5" xfId="50"/>
     <cellStyle name="强调文字颜色 5" xfId="51" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="52" builtinId="47"/>
-    <cellStyle name="合計" xfId="53"/>
-    <cellStyle name="20% - 輔色6" xfId="54"/>
-    <cellStyle name="40% - 輔色4" xfId="55"/>
-    <cellStyle name="60% - 輔色2" xfId="56"/>
+    <cellStyle name="60% - 輔色2" xfId="52"/>
+    <cellStyle name="40% - 輔色4" xfId="53"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="54" builtinId="47"/>
+    <cellStyle name="合計" xfId="55"/>
+    <cellStyle name="20% - 輔色6" xfId="56"/>
     <cellStyle name="60% - 强调文字颜色 5" xfId="57" builtinId="48"/>
     <cellStyle name="强调文字颜色 6" xfId="58" builtinId="49"/>
-    <cellStyle name="40% - 輔色5" xfId="59"/>
-    <cellStyle name="60% - 輔色3" xfId="60"/>
+    <cellStyle name="60% - 輔色3" xfId="59"/>
+    <cellStyle name="40% - 輔色5" xfId="60"/>
     <cellStyle name="40% - 强调文字颜色 6" xfId="61" builtinId="51"/>
     <cellStyle name="60% - 强调文字颜色 6" xfId="62" builtinId="52"/>
     <cellStyle name="20% - 輔色1" xfId="63"/>
@@ -3447,8 +3453,8 @@
   <sheetPr/>
   <dimension ref="A1:G256"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A116" workbookViewId="0">
-      <selection activeCell="D119" sqref="D119"/>
+    <sheetView tabSelected="1" topLeftCell="A95" workbookViewId="0">
+      <selection activeCell="B97" sqref="B97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="6"/>
